--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H2">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I2">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J2">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>70.31451059708627</v>
+        <v>78.64209668659997</v>
       </c>
       <c r="R2">
-        <v>70.31451059708627</v>
+        <v>707.7788701793999</v>
       </c>
       <c r="S2">
-        <v>0.3348721516858574</v>
+        <v>0.3432967390848762</v>
       </c>
       <c r="T2">
-        <v>0.3348721516858574</v>
+        <v>0.3432967390848763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H3">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I3">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J3">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>61.17281668218714</v>
+        <v>63.90366417539999</v>
       </c>
       <c r="R3">
-        <v>61.17281668218714</v>
+        <v>575.1329775785999</v>
       </c>
       <c r="S3">
-        <v>0.2913349260785069</v>
+        <v>0.2789589857251085</v>
       </c>
       <c r="T3">
-        <v>0.2913349260785069</v>
+        <v>0.2789589857251085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H4">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I4">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J4">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>8.879846440637484</v>
+        <v>9.523535486199998</v>
       </c>
       <c r="R4">
-        <v>8.879846440637484</v>
+        <v>85.71181937579999</v>
       </c>
       <c r="S4">
-        <v>0.04229017963668368</v>
+        <v>0.04157313722192051</v>
       </c>
       <c r="T4">
-        <v>0.04229017963668368</v>
+        <v>0.04157313722192051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H5">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I5">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J5">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>34.86843491035184</v>
+        <v>39.82532945977965</v>
       </c>
       <c r="R5">
-        <v>34.86843491035184</v>
+        <v>358.4279651380169</v>
       </c>
       <c r="S5">
-        <v>0.1660605716401252</v>
+        <v>0.173849710429361</v>
       </c>
       <c r="T5">
-        <v>0.1660605716401252</v>
+        <v>0.173849710429361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H6">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I6">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J6">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>30.33513792036712</v>
+        <v>32.361605128797</v>
       </c>
       <c r="R6">
-        <v>30.33513792036712</v>
+        <v>291.254446159173</v>
       </c>
       <c r="S6">
-        <v>0.1444707901799936</v>
+        <v>0.1412682771740166</v>
       </c>
       <c r="T6">
-        <v>0.1444707901799936</v>
+        <v>0.1412682771740166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H7">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I7">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J7">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>4.40344880452198</v>
+        <v>4.822836042524333</v>
       </c>
       <c r="R7">
-        <v>4.40344880452198</v>
+        <v>43.40552438271899</v>
       </c>
       <c r="S7">
-        <v>0.0209713807788331</v>
+        <v>0.02105315036471715</v>
       </c>
       <c r="T7">
-        <v>0.0209713807788331</v>
+        <v>0.02105315036471714</v>
       </c>
     </row>
   </sheetData>
